--- a/week-1/assignments/Attendance_tracker.xlsx
+++ b/week-1/assignments/Attendance_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisatosti/Documents/GitHub/coding-temple/week-1/assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F630C24E-0E64-FE4B-8AAF-D9BFEF86842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76F660D-4CFC-674D-A61C-B30CD623D385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-68540" yWindow="-7800" windowWidth="50880" windowHeight="21140" xr2:uid="{EEB311E8-42BF-5848-8358-BB3DDCF3A0AD}"/>
   </bookViews>
@@ -1516,7 +1516,7 @@
   <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
